--- a/도서관.xlsx
+++ b/도서관.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1204j\Desktop\소창프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C98735-7224-44EE-9EB8-045EBE01F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABDBBB-43F9-4E74-9647-A5C5F5FC871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5DAF7C60-D0AD-4341-B22F-F6C9DE01B8AA}"/>
+    <workbookView xWindow="4237" yWindow="1170" windowWidth="16200" windowHeight="9307" xr2:uid="{5DAF7C60-D0AD-4341-B22F-F6C9DE01B8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="57">
   <si>
     <t>주제자료실</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,12 +304,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -631,7 +628,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -666,7 +663,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
@@ -695,7 +692,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
@@ -724,7 +721,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -753,7 +750,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
@@ -782,7 +779,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
@@ -840,7 +837,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -867,7 +866,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -894,7 +895,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -923,7 +924,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
@@ -952,7 +953,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
@@ -981,7 +982,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
@@ -1010,7 +1011,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
@@ -1039,7 +1040,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
@@ -1068,7 +1069,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
@@ -1097,7 +1098,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
@@ -1155,7 +1156,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -1211,10 +1214,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A18:A19"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
